--- a/BAYRFGW17_LSM_EMPLOYEE_Channels_sessions.xlsx
+++ b/BAYRFGW17_LSM_EMPLOYEE_Channels_sessions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="46280" windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BAYRFGW17_LSM_EMPLOYEE_Channels" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>1990|370000000000/1990|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1990|1990|2000000|10.1.17.1|1.37.17.101|302|303|4225|Telecon Ch HD|Qam256|1312|288|Video|297|288</t>
+  </si>
+  <si>
     <t>1990|370000000000/1990|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1990|1990|2000000|10.1.17.1|1.37.17.101|302|303|4225|Telecon Ch HD|Qam256|1313|289|Audio|297|288</t>
   </si>
   <si>
@@ -44,25 +47,22 @@
     <t>1992|370000000000/1992|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1992|1992|2000000|10.1.17.1|1.37.17.101|814|815|4227|Knowledge TV 1|Qam256|1825|801|Audio|809|800</t>
   </si>
   <si>
-    <t>1993|370000000000/1993|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1993|1993|2000000|10.1.17.1|1.37.17.101|1070|1071|4228|Knowledge TV 2|Qam256|2080|1056|Video|1065|1056</t>
-  </si>
-  <si>
     <t>1993|370000000000/1993|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1993|1993|2000000|10.1.17.1|1.37.17.101|1070|1071|4228|Knowledge TV 2|Qam256|2081|1057|Audio|1065|1056</t>
   </si>
   <si>
     <t>1996|370000000000/1996|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1996|1996|2000000|10.1.17.1|1.37.17.101|1838|1839|0|Telecon Ch |Qam256|4384|1824|Video|1833|1824</t>
   </si>
   <si>
+    <t>1996|370000000000/1996|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1996|1996|2000000|10.1.17.1|1.37.17.101|1838|1839|0|Telecon Ch |Qam256|4385|1825|Audio|1833|1824</t>
+  </si>
+  <si>
     <t>1997|370000000000/1997|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1997|1997|2000000|10.1.17.1|1.37.17.101|2094|2095|0|WIRE TV Ch|Qam256|4640|2080|Video|2089|2080</t>
   </si>
   <si>
     <t>1997|370000000000/1997|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1997|1997|2000000|10.1.17.1|1.37.17.101|2094|2095|0|WIRE TV Ch|Qam256|4641|2081|Audio|2089|2080</t>
   </si>
   <si>
-    <t>A1990|370000000000/1990|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1990|1990|2000000|10.1.17.1|1.37.17.101|302|303|4225|Telecon Ch HD|Qam256|1312|288|Video|297|288</t>
-  </si>
-  <si>
-    <t>A1996|370000000000/1996|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1996|1996|2000000|10.1.17.1|1.37.17.101|1838|1839|0|Telecon Ch |Qam256|4385|1825|Audio|1833|1824</t>
+    <t>1993|370000000000/1993|BAYRFGW17_LSM|172.16.43.150|1|199|783000000|10001|10001|1993|1993|2000000|10.1.17.1|1.37.17.101|1070|1071|4228|Knowledge TV 2|Qam256|2080|1056|Audio|1065|1056</t>
   </si>
 </sst>
 </file>
@@ -380,44 +380,44 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -432,17 +432,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/BAYRFGW17_LSM_EMPLOYEE_Channels_sessions.xlsx
+++ b/BAYRFGW17_LSM_EMPLOYEE_Channels_sessions.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scascio/GitHub/LSM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sacascio/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="46280" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BAYRFGW17_LSM_EMPLOYEE_Channels" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
